--- a/biology/Médecine/Sexsomnie/Sexsomnie.xlsx
+++ b/biology/Médecine/Sexsomnie/Sexsomnie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sexsomnie (parfois orthographiée sexomnie) est un sous-type de parasomnie caractérisé par un comportement à type d'activité sexuelle pendant le sommeil et apparenté au somnambulisme (trouble de l'éveil en sommeil non paradoxal selon le DSM-5 ou trouble du réveil en sommeil lent profond selon la CITS-3)[1].
-Le trouble, qui peut toucher les deux sexes, est caractérisé par le fait que le sujet n'en garde aucun souvenir[2],[3],[4]. Ce sont ses proches (ou ses victimes) qui l'informeront de ses comportements nocturnes anormaux. Parfois, les témoins de ces événements déclarent que la personne avait l'air « possédée » et, souvent, qu'elle usait d'un langage beaucoup plus cru et d'un comportement plus agressif qu'en temps normal.
-Cette rare parasomnie n'est pas anodine puisqu'elle peut provoquer des problèmes pour la personne en étant affectée (physiquement et moralement) ainsi que des problèmes d'ordre juridique (procès pour viol ou atteintes aux mœurs[5]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sexsomnie (parfois orthographiée sexomnie) est un sous-type de parasomnie caractérisé par un comportement à type d'activité sexuelle pendant le sommeil et apparenté au somnambulisme (trouble de l'éveil en sommeil non paradoxal selon le DSM-5 ou trouble du réveil en sommeil lent profond selon la CITS-3).
+Le trouble, qui peut toucher les deux sexes, est caractérisé par le fait que le sujet n'en garde aucun souvenir. Ce sont ses proches (ou ses victimes) qui l'informeront de ses comportements nocturnes anormaux. Parfois, les témoins de ces événements déclarent que la personne avait l'air « possédée » et, souvent, qu'elle usait d'un langage beaucoup plus cru et d'un comportement plus agressif qu'en temps normal.
+Cette rare parasomnie n'est pas anodine puisqu'elle peut provoquer des problèmes pour la personne en étant affectée (physiquement et moralement) ainsi que des problèmes d'ordre juridique (procès pour viol ou atteintes aux mœurs).
 L'enregistrement du sommeil en polysomnographie avec vidéo permet de détecter la nature exacte du trouble. Le plus souvent, il survient (comme le somnambulisme) durant le sommeil lent, mais il peut aussi s'agir d'un trouble du comportement en sommeil paradoxal (TCSP) voire être d'origine épileptique.
 Les personnes atteintes du syndrome de Kleine-Levin (une maladie d'origine génétique caractérisée par la survenue, durant quelques jours, de crises d’hypersomnie, accompagnées de perturbations de l’humeur et du comportement à connotation sexuelle) n'ont pas de vraies sexsomnies puisqu'elles sont éveillées.
 La prise d'alcool ainsi que de certaines drogues et de médicaments peut favoriser l'apparition d'épisodes de sexsomnies.
@@ -518,7 +530,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dr House, saison 1, épisode 17 : « Double discours ». En consultation, House remarque une patiente souffrant de sexsomnie.
 Desperate Housewives, saison 7, épisode 2 : « Soulager sa douleur ». Gabrielle fait croire à Carlos qu’elle souffre de sexsomnie.
